--- a/master.xlsx
+++ b/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Desktop\HEC\Hiver 2020\ML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74137C8D-8812-44F3-9ACB-6BBA3BDB346B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B2CFC-679F-473C-8F88-2E5596878D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28485" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{670D804E-A30D-464D-AB2A-AA5404C553B3}"/>
+    <workbookView xWindow="28485" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{670D804E-A30D-464D-AB2A-AA5404C553B3}"/>
   </bookViews>
   <sheets>
     <sheet name="USA" sheetId="1" r:id="rId1"/>
@@ -19430,7 +19430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C805A-44E3-4E33-8B30-9B28BADF31E5}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AD39"/>
     </sheetView>
   </sheetViews>
@@ -35064,10 +35064,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF71FA8-FB86-4BD3-B60C-BDB1CBC2799C}">
-  <dimension ref="A1:AD50"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" activeCellId="1" sqref="Y2:Y39 AB2:AB39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -38478,16 +38478,6 @@
       </c>
       <c r="AA39">
         <v>97.914720000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="29:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="AC50">
-        <v>33.700000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/master.xlsx
+++ b/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Desktop\HEC\Hiver 2020\ML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B2CFC-679F-473C-8F88-2E5596878D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1EF958-A73D-4DEC-96A8-F0A974580DAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28485" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{670D804E-A30D-464D-AB2A-AA5404C553B3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Japan" sheetId="8" r:id="rId3"/>
     <sheet name="Germany" sheetId="3" r:id="rId4"/>
     <sheet name="India" sheetId="13" r:id="rId5"/>
-    <sheet name="UK" sheetId="2" r:id="rId6"/>
+    <sheet name="UK" sheetId="16" r:id="rId6"/>
     <sheet name="France" sheetId="5" r:id="rId7"/>
     <sheet name="Italy" sheetId="14" r:id="rId8"/>
     <sheet name="Brazil" sheetId="15" r:id="rId9"/>
@@ -35063,11 +35063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF71FA8-FB86-4BD3-B60C-BDB1CBC2799C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD356368-DB64-406A-A694-9DE0C888C0A6}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
